--- a/heliostrome/jip_project/results/PVPUmp_Data.xlsx
+++ b/heliostrome/jip_project/results/PVPUmp_Data.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Pump 1</t>
+          <t>Pump</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Pump 10</t>
+          <t>Pump</t>
         </is>
       </c>
     </row>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Pump 11</t>
+          <t>Pump</t>
         </is>
       </c>
     </row>
@@ -9329,7 +9329,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Pump 12</t>
+          <t>Pump</t>
         </is>
       </c>
     </row>
@@ -12283,7 +12283,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Pump 13</t>
+          <t>Pump</t>
         </is>
       </c>
     </row>
@@ -15237,7 +15237,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Pump 14</t>
+          <t>Pump</t>
         </is>
       </c>
     </row>
@@ -18191,7 +18191,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Pump 15</t>
+          <t>Pump</t>
         </is>
       </c>
     </row>
@@ -21145,7 +21145,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Pump 16</t>
+          <t>Pump</t>
         </is>
       </c>
     </row>
@@ -24099,7 +24099,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Pump 2</t>
+          <t>Pump</t>
         </is>
       </c>
     </row>
@@ -27053,7 +27053,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Pump 3</t>
+          <t>Pump</t>
         </is>
       </c>
     </row>
@@ -30007,7 +30007,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Pump 4</t>
+          <t>Pump</t>
         </is>
       </c>
     </row>
@@ -32961,7 +32961,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Pump 5</t>
+          <t>Pump</t>
         </is>
       </c>
     </row>
@@ -35915,7 +35915,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Pump 6</t>
+          <t>Pump</t>
         </is>
       </c>
     </row>
@@ -38869,7 +38869,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Pump 7</t>
+          <t>Pump</t>
         </is>
       </c>
     </row>
@@ -41823,7 +41823,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Pump 8</t>
+          <t>Pump</t>
         </is>
       </c>
     </row>
@@ -44777,7 +44777,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Pump 9</t>
+          <t>Pump</t>
         </is>
       </c>
     </row>

--- a/heliostrome/jip_project/results/PVPUmp_Data.xlsx
+++ b/heliostrome/jip_project/results/PVPUmp_Data.xlsx
@@ -23,6 +23,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pump 14" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pump 15" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pump 16" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pump 17" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pump 18" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24074,6 +24076,5914 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B366"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Pump</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>38353</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6055278722450869</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>38354</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6126100339929</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>38355</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4813906752993659</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>38356</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5897435337132687</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>38357</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6196402693822045</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>38358</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6266222059473956</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>38359</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.416040699623516</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>38360</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5759080370713158</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>38361</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.3877316979929407</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>38362</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5431635441479444</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>38363</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5571587113788826</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>38364</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.623147734022969</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>38365</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6097792729693223</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>38366</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6047262187802974</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>38367</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6038983173501228</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>38368</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5850324948020889</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>38369</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5649382575090831</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>38370</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5860035883888172</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>38371</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5739361845808343</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>38372</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5726759326808029</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>38373</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6287248504388834</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>38374</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6250731718689112</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>38375</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6245645544460136</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>38376</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6214897524119749</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>38377</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4962449275311704</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>38378</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6297822523363645</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>38379</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6257814738922712</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>38380</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.6169246480160128</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>38381</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5934495854196195</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>38382</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5911574662361074</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>38383</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5769074993396859</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>38384</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.04865753859093825</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>38385</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.6199979105229609</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>38386</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.6286462636947417</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>38387</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.6058642985804901</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>38388</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5976618498421988</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>38389</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5430803824866903</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>38390</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5531866799034479</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>38391</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5513571101246765</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>38392</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5914431750588396</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>38393</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5936328205155394</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>38394</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5923891330138895</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>38395</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5936839595145921</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>38396</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5826815553393562</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>38397</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.6080454188165738</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>38398</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.6208761544598351</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>38399</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5619591069131368</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>38400</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5457652504826319</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>38401</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5010184339715391</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>38402</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5139527332783869</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>38403</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.4930198381279316</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>38404</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5279385147760109</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>38405</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5226281610957122</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>38406</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5957329006460456</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>38407</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.6148175856773631</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>38408</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.6174209909218237</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>38409</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.6082581048039614</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>38410</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5883854030527481</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>38411</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5965630241920282</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>38412</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5906552856735261</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5761812729629068</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n">
+        <v>38414</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.507622266036809</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>38415</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5665866237436884</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>38416</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5723304484356592</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>38417</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5003781121450537</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>38418</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.4715889608241886</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>38419</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.592788818911941</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>38420</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.4756423798348713</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>38421</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.6003342501467556</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>38422</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5544705670421884</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n">
+        <v>38423</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5747307248559678</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n">
+        <v>38424</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5528874792958359</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n">
+        <v>38425</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.4141919792201493</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.2797093694136484</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n">
+        <v>38427</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5811848759210323</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n">
+        <v>38428</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5442019634210912</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="n">
+        <v>38429</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5469328774502721</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n">
+        <v>38430</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5544427029006266</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n">
+        <v>38431</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.4896965981520948</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n">
+        <v>38432</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.569105611270921</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n">
+        <v>38433</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5235923590664076</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>38434</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5735618772113869</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="n">
+        <v>38435</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.5134570709503591</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n">
+        <v>38436</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5467224463093697</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="n">
+        <v>38437</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.5261712895832685</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n">
+        <v>38438</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5273398840433169</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="n">
+        <v>38439</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5651328359328123</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n">
+        <v>38440</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.4704196787911917</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="n">
+        <v>38441</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.5879140570941759</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="n">
+        <v>38442</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.5056079742957943</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="n">
+        <v>38443</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.5258699936353579</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n">
+        <v>38444</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5149622558978233</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n">
+        <v>38445</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.5738759341675217</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n">
+        <v>38446</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.5472246792496006</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="n">
+        <v>38447</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.4009650585597391</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n">
+        <v>38448</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.5902806976263268</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="n">
+        <v>38449</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.5931666826177506</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n">
+        <v>38450</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.3935070215564817</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="n">
+        <v>38451</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.3499641545101191</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n">
+        <v>38452</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.5951088631428054</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="n">
+        <v>38453</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.5689835740525243</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n">
+        <v>38454</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.5523112603288423</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="n">
+        <v>38455</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.5522827476720158</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="n">
+        <v>38456</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.5491951141961533</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="n">
+        <v>38457</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.5633886443585924</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="n">
+        <v>38458</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.5653467575290902</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="n">
+        <v>38459</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.5294067155952321</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="n">
+        <v>38460</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.5021488906202279</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="n">
+        <v>38461</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.5214622009384672</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="n">
+        <v>38462</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.5192450480056512</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="n">
+        <v>38463</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.5038555163834533</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="n">
+        <v>38464</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.5699329275888183</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="n">
+        <v>38465</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.5361980504904067</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="n">
+        <v>38466</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.5146547777652486</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="n">
+        <v>38467</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.3447314159768979</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="n">
+        <v>38468</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.5773279228670681</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="n">
+        <v>38469</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.5339584155424972</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="n">
+        <v>38470</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.5492325562597268</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="n">
+        <v>38471</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.5187489175154441</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="n">
+        <v>38472</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.5617897151695976</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="n">
+        <v>38473</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.4094630164425458</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="n">
+        <v>38474</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.5831731983769349</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="n">
+        <v>38475</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.5112841086026557</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="n">
+        <v>38476</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.3581570146396167</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="n">
+        <v>38477</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.5858545386959346</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="n">
+        <v>38478</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.5141311599473372</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="n">
+        <v>38479</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.5948515440955359</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="n">
+        <v>38480</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.5947759515347865</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="n">
+        <v>38481</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.5708404427026539</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="n">
+        <v>38482</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.5606606110001687</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="n">
+        <v>38483</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.5073085679030588</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="n">
+        <v>38484</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.5433127987684111</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="n">
+        <v>38485</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.5432739343196147</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="n">
+        <v>38486</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.5166009417939575</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="n">
+        <v>38487</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.5352588270502202</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="n">
+        <v>38488</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.2967926723313916</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="n">
+        <v>38489</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.4910878630040349</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="n">
+        <v>38490</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.3157346664523957</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="n">
+        <v>38491</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.5015738653729425</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="n">
+        <v>38492</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.5555153379649616</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3" t="n">
+        <v>38493</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.4482714725212246</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="n">
+        <v>38494</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.3635998275309646</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="n">
+        <v>38495</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.5674878413517168</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="n">
+        <v>38496</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.4513951399063739</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3" t="n">
+        <v>38497</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.5810648088657565</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="n">
+        <v>38498</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.5551467988859798</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3" t="n">
+        <v>38499</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.5529649192660561</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="n">
+        <v>38500</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.4917493192560976</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="3" t="n">
+        <v>38501</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.5283165081656027</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="3" t="n">
+        <v>38502</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.5302721824357917</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="3" t="n">
+        <v>38503</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.5105786944551176</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="3" t="n">
+        <v>38504</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.5706137001139964</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="3" t="n">
+        <v>38505</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.4755820317166379</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="n">
+        <v>38506</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.4034391006974748</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="3" t="n">
+        <v>38507</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.573000642774813</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="3" t="n">
+        <v>38508</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.4625417153423836</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="3" t="n">
+        <v>38509</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.5457625723484919</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="3" t="n">
+        <v>38510</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.6271367415362108</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="3" t="n">
+        <v>38511</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.5210097707396534</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="3" t="n">
+        <v>38512</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.5853971635004387</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="3" t="n">
+        <v>38513</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.5663056016915159</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3" t="n">
+        <v>38514</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.1686928423838046</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="3" t="n">
+        <v>38515</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.5999842291807567</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="3" t="n">
+        <v>38516</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.6138019755217813</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="3" t="n">
+        <v>38517</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.4794854914153756</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="3" t="n">
+        <v>38518</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.6023901930904231</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="3" t="n">
+        <v>38519</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.3472979129466908</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="3" t="n">
+        <v>38520</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.07969873093165165</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="3" t="n">
+        <v>38521</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3" t="n">
+        <v>38522</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.5339624097338225</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3" t="n">
+        <v>38523</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.510469647919929</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3" t="n">
+        <v>38524</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.5498378040361028</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3" t="n">
+        <v>38525</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.372517157342598</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3" t="n">
+        <v>38526</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.5103611500499938</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3" t="n">
+        <v>38527</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.1614925629053261</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="3" t="n">
+        <v>38528</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.4693542925981768</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="3" t="n">
+        <v>38529</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.03134801911141723</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3" t="n">
+        <v>38530</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.180318893022735</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="3" t="n">
+        <v>38531</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.4359134991179518</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="3" t="n">
+        <v>38532</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.3059713512255287</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="3" t="n">
+        <v>38533</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.4390393857948814</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="3" t="n">
+        <v>38534</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="3" t="n">
+        <v>38535</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.3549109300741048</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="3" t="n">
+        <v>38536</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.0821052640031267</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="3" t="n">
+        <v>38537</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.4591448641699177</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="3" t="n">
+        <v>38538</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.6263536170234086</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="3" t="n">
+        <v>38539</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.6766110928245939</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="3" t="n">
+        <v>38540</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.5221397525971875</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="3" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.6290148315364501</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="3" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.5718625012677213</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="3" t="n">
+        <v>38543</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.5952893281502674</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="3" t="n">
+        <v>38544</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.5999564094075241</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="3" t="n">
+        <v>38545</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.277950774480388</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="3" t="n">
+        <v>38546</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.5384783248742077</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="3" t="n">
+        <v>38547</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.614782969149267</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="3" t="n">
+        <v>38548</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.2701719960459399</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="3" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.5596190982317378</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="3" t="n">
+        <v>38550</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.5566075790062358</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="3" t="n">
+        <v>38551</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.3717676518723078</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="3" t="n">
+        <v>38552</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.4045229450589333</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="3" t="n">
+        <v>38553</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.5402313858909381</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="3" t="n">
+        <v>38554</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.4655620181711758</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="3" t="n">
+        <v>38555</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.379095845062259</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="3" t="n">
+        <v>38556</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.5427519229505654</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="3" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.5915721681558512</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="3" t="n">
+        <v>38558</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.5152398630961199</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="3" t="n">
+        <v>38559</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.4584699977970234</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="3" t="n">
+        <v>38560</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.5185037418505288</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="3" t="n">
+        <v>38561</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.5037762734455147</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="3" t="n">
+        <v>38562</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.5818240239976631</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="3" t="n">
+        <v>38563</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.5819547474155117</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="3" t="n">
+        <v>38564</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.5146293167483266</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="3" t="n">
+        <v>38565</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.4744632758723218</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="3" t="n">
+        <v>38566</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.4345876041699546</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="3" t="n">
+        <v>38567</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.4200966090591181</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="3" t="n">
+        <v>38568</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.6050771024362958</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="3" t="n">
+        <v>38569</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.6422171183533547</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="3" t="n">
+        <v>38570</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.5126582396351351</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="3" t="n">
+        <v>38571</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.5470838237799021</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="3" t="n">
+        <v>38572</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.6154231546018922</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="3" t="n">
+        <v>38573</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.3748236312148088</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="3" t="n">
+        <v>38574</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.6127175840312724</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="3" t="n">
+        <v>38575</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.6296124679489647</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="3" t="n">
+        <v>38576</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.554624359005624</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="3" t="n">
+        <v>38577</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.2049330725857651</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="3" t="n">
+        <v>38578</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.2715413485115475</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="3" t="n">
+        <v>38579</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.591542890611372</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="3" t="n">
+        <v>38580</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.5773672137214086</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="3" t="n">
+        <v>38581</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.5678366134106387</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="3" t="n">
+        <v>38582</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.6019401017448861</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="3" t="n">
+        <v>38583</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.5877408552548058</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="3" t="n">
+        <v>38584</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.596523045353557</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="3" t="n">
+        <v>38585</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.09847981352277368</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="3" t="n">
+        <v>38586</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.2464794325954039</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="3" t="n">
+        <v>38587</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.5284762246814094</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="3" t="n">
+        <v>38588</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.5345737029123335</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="3" t="n">
+        <v>38589</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.540492596242893</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="3" t="n">
+        <v>38590</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.5701264933006042</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="3" t="n">
+        <v>38591</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.53550491193377</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="3" t="n">
+        <v>38592</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.53242477018463</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="3" t="n">
+        <v>38593</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.568123994566025</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="3" t="n">
+        <v>38594</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.5730002550490012</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="3" t="n">
+        <v>38595</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.5169405713809599</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="3" t="n">
+        <v>38596</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.4746171366767155</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="3" t="n">
+        <v>38597</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.4539470990237924</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="3" t="n">
+        <v>38598</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.5860522383174086</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="3" t="n">
+        <v>38599</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.4189258120767743</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="3" t="n">
+        <v>38600</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.5916921771825979</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="3" t="n">
+        <v>38601</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.5145520782590105</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="3" t="n">
+        <v>38602</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.3042198557871105</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="3" t="n">
+        <v>38603</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.4311211290946518</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="3" t="n">
+        <v>38604</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.4463391635578775</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="3" t="n">
+        <v>38605</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.5263391227866859</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="3" t="n">
+        <v>38606</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.5262722070014384</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="3" t="n">
+        <v>38607</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.5193403380433738</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="3" t="n">
+        <v>38608</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.3308839025768596</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="3" t="n">
+        <v>38609</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.240835979168132</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="3" t="n">
+        <v>38610</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.4220412554505282</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="3" t="n">
+        <v>38611</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.5078846885345862</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="3" t="n">
+        <v>38612</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.4638816881595914</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="3" t="n">
+        <v>38613</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.5386089163477188</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="3" t="n">
+        <v>38614</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.3739419679332236</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="3" t="n">
+        <v>38615</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.1774833172878973</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="3" t="n">
+        <v>38616</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.2157152209123432</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="3" t="n">
+        <v>38617</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.4091848683822781</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="3" t="n">
+        <v>38618</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.4829171922758425</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="3" t="n">
+        <v>38619</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.4396510141954078</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="3" t="n">
+        <v>38620</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.4310921048268383</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="3" t="n">
+        <v>38621</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.4111936364964714</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="3" t="n">
+        <v>38622</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.3235196867086229</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="3" t="n">
+        <v>38623</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.5281567345578867</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="3" t="n">
+        <v>38624</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.5014654027992322</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="3" t="n">
+        <v>38625</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.503158784585766</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="3" t="n">
+        <v>38626</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.5010222895740574</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="3" t="n">
+        <v>38627</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.5420274838279189</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="3" t="n">
+        <v>38628</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.3538491794830072</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="3" t="n">
+        <v>38629</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.3733934790983795</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="3" t="n">
+        <v>38630</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.1787956298116526</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="3" t="n">
+        <v>38631</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.5064078603038029</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="3" t="n">
+        <v>38632</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.5689016686689536</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="3" t="n">
+        <v>38633</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.5476834943786444</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="3" t="n">
+        <v>38634</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.514680933250721</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="3" t="n">
+        <v>38635</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.4987578920235555</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="3" t="n">
+        <v>38636</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.5023609988470862</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="3" t="n">
+        <v>38637</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.5807415935745502</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="3" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.5640570450910997</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.4391338686329594</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="3" t="n">
+        <v>38640</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0.4778561583417824</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="3" t="n">
+        <v>38641</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0.524158685125594</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="3" t="n">
+        <v>38642</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0.5214897003288239</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="3" t="n">
+        <v>38643</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.5176132321356889</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="3" t="n">
+        <v>38644</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.5551764252712919</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="3" t="n">
+        <v>38645</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.5361464117288284</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="3" t="n">
+        <v>38646</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.1974374238791461</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="3" t="n">
+        <v>38647</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.3419080654734087</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="3" t="n">
+        <v>38648</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.543798438077054</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="3" t="n">
+        <v>38649</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0.1259119800813827</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="3" t="n">
+        <v>38650</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0.1034660267395179</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="3" t="n">
+        <v>38651</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0.4587543379122258</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="3" t="n">
+        <v>38652</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0.5583861609804067</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="3" t="n">
+        <v>38653</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0.5446464571121848</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="3" t="n">
+        <v>38654</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.531021526951478</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="3" t="n">
+        <v>38655</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0.5309929742632981</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="3" t="n">
+        <v>38656</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0.5346528044841004</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="3" t="n">
+        <v>38657</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0.542853966498251</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="3" t="n">
+        <v>38658</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0.5310846357706877</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="3" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0.5289194786925046</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="3" t="n">
+        <v>38660</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0.5314659071707436</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="3" t="n">
+        <v>38661</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0.528796435473207</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="3" t="n">
+        <v>38662</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0.5246735504001199</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="3" t="n">
+        <v>38663</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0.5113470821453053</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="3" t="n">
+        <v>38664</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0.4550216019442712</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="3" t="n">
+        <v>38665</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0.503616918614853</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="3" t="n">
+        <v>38666</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.5428160251031496</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="3" t="n">
+        <v>38667</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.5395785482583023</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="3" t="n">
+        <v>38668</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.5314565671862103</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="3" t="n">
+        <v>38669</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.5421123187359911</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="3" t="n">
+        <v>38670</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.5017049003478401</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="3" t="n">
+        <v>38671</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.5678819469942884</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="3" t="n">
+        <v>38672</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.5335000569922755</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="3" t="n">
+        <v>38673</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0.5342452719631421</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="3" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0.5570512773854395</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="3" t="n">
+        <v>38675</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0.5618730556963335</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="3" t="n">
+        <v>38676</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0.5767693218765608</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="3" t="n">
+        <v>38677</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0.5661471733169442</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="3" t="n">
+        <v>38678</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0.5629871178090837</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="3" t="n">
+        <v>38679</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0.5594567606967584</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="3" t="n">
+        <v>38680</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0.5765840638509071</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="3" t="n">
+        <v>38681</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0.5786725671142023</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="3" t="n">
+        <v>38682</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0.549926529631192</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="3" t="n">
+        <v>38683</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.5656630232656024</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="3" t="n">
+        <v>38684</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.5690675484132923</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="3" t="n">
+        <v>38685</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0.5648554761581353</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="3" t="n">
+        <v>38686</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0.5598245415515709</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="3" t="n">
+        <v>38687</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0.5871202347748106</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="3" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0.5640086322184497</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="3" t="n">
+        <v>38689</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0.5684886344083041</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="3" t="n">
+        <v>38690</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0.5633302140546081</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="3" t="n">
+        <v>38691</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0.5618396230769414</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="3" t="n">
+        <v>38692</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0.5741522716453223</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="3" t="n">
+        <v>38693</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0.5071935495307941</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="3" t="n">
+        <v>38694</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0.4831675930574453</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="3" t="n">
+        <v>38695</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0.5535663936868125</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="3" t="n">
+        <v>38696</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0.5583049518652254</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="3" t="n">
+        <v>38697</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0.4275904383190146</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="3" t="n">
+        <v>38698</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0.3628269706768329</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="3" t="n">
+        <v>38699</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0.3657577580771499</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="3" t="n">
+        <v>38700</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0.257383709015348</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="3" t="n">
+        <v>38701</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.4417112704167742</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="3" t="n">
+        <v>38702</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0.5803874359245942</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="3" t="n">
+        <v>38703</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0.534293951144766</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="3" t="n">
+        <v>38704</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0.4059830377939248</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="3" t="n">
+        <v>38705</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0.520172466304603</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="3" t="n">
+        <v>38706</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0.5914671423655631</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="3" t="n">
+        <v>38707</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0.5794994643817235</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="3" t="n">
+        <v>38708</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0.5881683118692104</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="3" t="n">
+        <v>38709</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0.5920527250278759</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="3" t="n">
+        <v>38710</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0.5944891991431899</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="3" t="n">
+        <v>38711</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0.5736509883108372</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="3" t="n">
+        <v>38712</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0.3385249918549126</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="3" t="n">
+        <v>38713</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0.4251364676723774</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="3" t="n">
+        <v>38714</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0.4084352763806409</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="3" t="n">
+        <v>38715</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0.4035145921517618</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="3" t="n">
+        <v>38716</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0.4452609778520006</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="3" t="n">
+        <v>38717</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0.2142450135587383</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B366"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Pump</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>38353</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.843116238614053</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>38354</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.934701374215886</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>38355</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.525059494758416</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>38356</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.843236827985705</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>38357</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.891990754054097</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>38358</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.913953531681605</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>38359</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.261659724478273</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>38360</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.695546611197767</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>38361</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.055659443058071</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>38362</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.364583368618012</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>38363</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.57686725736623</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>38364</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.904110202484375</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>38365</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.899387750519125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>38366</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.925656001476995</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>38367</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.923776355679128</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>38368</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.887290626933874</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>38369</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.790093767727922</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>38370</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.89246268941657</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>38371</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.894358121004763</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>38372</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.715814465983255</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>38373</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.966605110438927</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>38374</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.971089021729137</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>38375</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.970328231675028</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>38376</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.963475961797048</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>38377</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.652416890988591</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>38378</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.941512069047225</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>38379</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.935562701092178</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>38380</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.890475698077848</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>38381</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.925021199959815</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>38382</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.958458067644631</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>38383</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.84910214048231</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>38384</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.07477387634055942</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>38385</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.925175255071408</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>38386</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.927027625376482</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>38387</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.908835534440754</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>38388</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.913833675473601</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>38389</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.788000578295381</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>38390</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.845594532504064</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>38391</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.825524618523893</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>38392</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.905180003641531</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>38393</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.918878302013529</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>38394</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.932384080241931</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>38395</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1.941596659208351</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>38396</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1.974745421485606</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>38397</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2.009540574545991</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>38398</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2.00382197360129</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>38399</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1.862557660099551</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>38400</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1.926206356642348</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>38401</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1.503946215321577</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>38402</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1.683944648494383</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>38403</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1.635429113660538</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>38404</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1.854478895922705</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>38405</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1.672036915151557</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>38406</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.927261776024484</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>38407</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.996579203149739</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>38408</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2.006775688251007</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>38409</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2.003029485640597</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>38410</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1.983687708249571</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>38411</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2.005962776624135</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>38412</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.990280795830329</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n">
+        <v>38413</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1.937645856493234</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n">
+        <v>38414</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.681257331012777</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>38415</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.933847532645915</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>38416</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1.915502467381326</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>38417</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1.752086949986261</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>38418</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1.717317674903508</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>38419</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.997388483140367</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>38420</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1.583125880507441</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>38421</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2.004617354980415</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>38422</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1.851823174812773</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n">
+        <v>38423</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.988229121454741</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n">
+        <v>38424</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1.87470853219649</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n">
+        <v>38425</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1.386189396118065</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.094158115553779</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n">
+        <v>38427</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.998648115027182</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n">
+        <v>38428</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1.868151649554436</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="n">
+        <v>38429</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1.905234257331092</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n">
+        <v>38430</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1.981158142920255</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n">
+        <v>38431</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1.493947045260112</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n">
+        <v>38432</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1.870270074236803</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n">
+        <v>38433</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1.707741156419371</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>38434</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1.949295775040666</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="n">
+        <v>38435</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1.894496129721839</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n">
+        <v>38436</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1.959632498850546</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="n">
+        <v>38437</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1.93750225980539</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n">
+        <v>38438</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1.907624088502886</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="n">
+        <v>38439</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1.845551088205126</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n">
+        <v>38440</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1.469101644732018</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="n">
+        <v>38441</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1.899731702353937</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="n">
+        <v>38442</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1.711369897748314</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="n">
+        <v>38443</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1.921517999477981</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n">
+        <v>38444</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1.900445174025563</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n">
+        <v>38445</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2.007323084040737</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n">
+        <v>38446</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1.950070935475068</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="n">
+        <v>38447</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1.350642166478941</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n">
+        <v>38448</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1.977052277624908</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="n">
+        <v>38449</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2.019133883875939</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n">
+        <v>38450</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.338156286638833</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="n">
+        <v>38451</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1.209674833184464</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n">
+        <v>38452</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1.97086626658118</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="n">
+        <v>38453</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.995666210554562</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n">
+        <v>38454</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.979362703206185</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="n">
+        <v>38455</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.95459624145455</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="n">
+        <v>38456</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.948803340683777</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="n">
+        <v>38457</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.950330523452485</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="n">
+        <v>38458</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.950604849047312</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="n">
+        <v>38459</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.94059284577129</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="n">
+        <v>38460</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.885657600444837</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="n">
+        <v>38461</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.921005424957358</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="n">
+        <v>38462</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.938103268932521</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="n">
+        <v>38463</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.884651616582187</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="n">
+        <v>38464</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.962180499422011</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="n">
+        <v>38465</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.960662276958596</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="n">
+        <v>38466</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.889404301510287</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="n">
+        <v>38467</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.265372394068077</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="n">
+        <v>38468</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.979218793832774</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="n">
+        <v>38469</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.682451867745351</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="n">
+        <v>38470</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.91608478442476</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="n">
+        <v>38471</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.810438859752383</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="n">
+        <v>38472</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2.027624810265474</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="n">
+        <v>38473</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.398020817036036</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="n">
+        <v>38474</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2.039153705690004</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="n">
+        <v>38475</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.663385562476595</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="n">
+        <v>38476</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.161896094855451</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="n">
+        <v>38477</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2.020371705555434</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="n">
+        <v>38478</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.784709598237611</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="n">
+        <v>38479</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.841828815787277</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="n">
+        <v>38480</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2.027996641341473</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="n">
+        <v>38481</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.985105237466656</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="n">
+        <v>38482</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.972022722928737</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="n">
+        <v>38483</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.789901149411366</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="n">
+        <v>38484</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.85910437576066</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="n">
+        <v>38485</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.883098762361085</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="n">
+        <v>38486</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.718904253194949</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="n">
+        <v>38487</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.899472737317556</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="n">
+        <v>38488</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.088765835879892</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="n">
+        <v>38489</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.587619214605219</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="n">
+        <v>38490</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.029134581434066</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="n">
+        <v>38491</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.628234802849654</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="n">
+        <v>38492</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.861581564922302</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3" t="n">
+        <v>38493</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.490635697968255</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="n">
+        <v>38494</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.122639834909834</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="n">
+        <v>38495</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.789909647945211</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="n">
+        <v>38496</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.580028419252916</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3" t="n">
+        <v>38497</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.972675931102869</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="n">
+        <v>38498</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.939750561374136</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3" t="n">
+        <v>38499</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.966988179304384</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="n">
+        <v>38500</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.566347793272269</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="3" t="n">
+        <v>38501</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.934752136694809</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="3" t="n">
+        <v>38502</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.941575988728326</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="3" t="n">
+        <v>38503</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.806958952756561</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="3" t="n">
+        <v>38504</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.983775783928666</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="3" t="n">
+        <v>38505</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.658756447804219</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="n">
+        <v>38506</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.274721061993481</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="3" t="n">
+        <v>38507</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.929952840884504</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="3" t="n">
+        <v>38508</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.585511877338676</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="3" t="n">
+        <v>38509</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.903764869138486</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="3" t="n">
+        <v>38510</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2.078999627087485</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="3" t="n">
+        <v>38511</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.614671406615104</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="3" t="n">
+        <v>38512</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1.853974668724075</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="3" t="n">
+        <v>38513</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.843788593297825</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3" t="n">
+        <v>38514</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.56434942259143</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="3" t="n">
+        <v>38515</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.979577065359649</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="3" t="n">
+        <v>38516</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2.042396691688141</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="3" t="n">
+        <v>38517</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.574326280287751</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="3" t="n">
+        <v>38518</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.798076518487179</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="3" t="n">
+        <v>38519</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.9322916567553743</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="3" t="n">
+        <v>38520</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.1330549890678493</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="3" t="n">
+        <v>38521</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.03964526672182523</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3" t="n">
+        <v>38522</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.689786774139313</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3" t="n">
+        <v>38523</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1.640651671707096</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3" t="n">
+        <v>38524</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1.731388172877736</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3" t="n">
+        <v>38525</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.254206918514967</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3" t="n">
+        <v>38526</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.665072163154051</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3" t="n">
+        <v>38527</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.4905702683131883</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="3" t="n">
+        <v>38528</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1.498514340727118</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="3" t="n">
+        <v>38529</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.1249497956578819</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3" t="n">
+        <v>38530</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.5783021003055672</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="3" t="n">
+        <v>38531</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1.097334756130661</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="3" t="n">
+        <v>38532</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.8233037659843924</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="3" t="n">
+        <v>38533</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1.262541646828964</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="3" t="n">
+        <v>38534</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="3" t="n">
+        <v>38535</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1.035283450387741</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="3" t="n">
+        <v>38536</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.1647711926331109</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="3" t="n">
+        <v>38537</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1.33827663956478</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="3" t="n">
+        <v>38538</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2.001138200879983</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="3" t="n">
+        <v>38539</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2.104584919459637</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="3" t="n">
+        <v>38540</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1.720214706736933</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="3" t="n">
+        <v>38541</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2.032061665982648</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="3" t="n">
+        <v>38542</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1.970655311567547</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="3" t="n">
+        <v>38543</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2.012708586196393</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="3" t="n">
+        <v>38544</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2.041087712658148</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="3" t="n">
+        <v>38545</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.6681938550585844</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="3" t="n">
+        <v>38546</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1.718395093825004</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="3" t="n">
+        <v>38547</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1.972776481358451</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="3" t="n">
+        <v>38548</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7707248563473738</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="3" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1.863500823841806</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="3" t="n">
+        <v>38550</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1.727524110741261</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="3" t="n">
+        <v>38551</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1.249889540779075</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="3" t="n">
+        <v>38552</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1.116833499066163</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="3" t="n">
+        <v>38553</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1.748532901025113</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="3" t="n">
+        <v>38554</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1.318547685869602</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="3" t="n">
+        <v>38555</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1.290986378590053</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="3" t="n">
+        <v>38556</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1.814520375077084</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="3" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1.937228701955544</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="3" t="n">
+        <v>38558</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1.897778076262926</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="3" t="n">
+        <v>38559</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1.589063493870964</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="3" t="n">
+        <v>38560</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1.740643196192138</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="3" t="n">
+        <v>38561</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1.716864505900158</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="3" t="n">
+        <v>38562</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1.9825137009854</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="3" t="n">
+        <v>38563</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1.937412634602463</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="3" t="n">
+        <v>38564</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1.71662304578277</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="3" t="n">
+        <v>38565</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1.493488701838699</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="3" t="n">
+        <v>38566</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1.282243147282853</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="3" t="n">
+        <v>38567</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1.366415425203082</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="3" t="n">
+        <v>38568</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2.055660428820393</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="3" t="n">
+        <v>38569</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2.049131653827441</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="3" t="n">
+        <v>38570</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1.699222078632101</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="3" t="n">
+        <v>38571</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1.771642330291135</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="3" t="n">
+        <v>38572</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1.984444356374034</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="3" t="n">
+        <v>38573</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1.091465414046053</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="3" t="n">
+        <v>38574</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2.024381579854915</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="3" t="n">
+        <v>38575</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2.03846443972089</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="3" t="n">
+        <v>38576</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1.743066671507156</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="3" t="n">
+        <v>38577</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.5945560267892337</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="3" t="n">
+        <v>38578</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.8199975481566937</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="3" t="n">
+        <v>38579</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1.877926966999822</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="3" t="n">
+        <v>38580</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1.961682351580527</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="3" t="n">
+        <v>38581</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2.01763249093602</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="3" t="n">
+        <v>38582</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2.032511173942841</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="3" t="n">
+        <v>38583</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1.936167182883275</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="3" t="n">
+        <v>38584</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1.984557511964068</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="3" t="n">
+        <v>38585</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.2361634971916038</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="3" t="n">
+        <v>38586</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.6931459354997855</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="3" t="n">
+        <v>38587</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1.687641682847126</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="3" t="n">
+        <v>38588</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1.745528840481442</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="3" t="n">
+        <v>38589</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1.644335689953466</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="3" t="n">
+        <v>38590</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1.854172185372508</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="3" t="n">
+        <v>38591</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1.739000101782763</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="3" t="n">
+        <v>38592</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1.786061114118748</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="3" t="n">
+        <v>38593</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1.898388702591835</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="3" t="n">
+        <v>38594</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1.939092098013257</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="3" t="n">
+        <v>38595</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1.72662380048794</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="3" t="n">
+        <v>38596</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1.403302364240111</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="3" t="n">
+        <v>38597</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1.416589509196343</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="3" t="n">
+        <v>38598</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1.854136881635013</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="3" t="n">
+        <v>38599</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1.406407734790994</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="3" t="n">
+        <v>38600</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1.910315432094095</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="3" t="n">
+        <v>38601</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1.741698564827357</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="3" t="n">
+        <v>38602</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.8120762251268966</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="3" t="n">
+        <v>38603</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1.505197674995809</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="3" t="n">
+        <v>38604</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1.461222925756771</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="3" t="n">
+        <v>38605</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1.834502220440537</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="3" t="n">
+        <v>38606</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1.879466919657721</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="3" t="n">
+        <v>38607</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1.776964713854074</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="3" t="n">
+        <v>38608</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1.146248045537928</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="3" t="n">
+        <v>38609</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.5991547811074561</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="3" t="n">
+        <v>38610</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1.589856714601328</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="3" t="n">
+        <v>38611</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1.881454373937393</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="3" t="n">
+        <v>38612</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1.646806779214929</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="3" t="n">
+        <v>38613</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1.898852930068604</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="3" t="n">
+        <v>38614</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1.307531725447292</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="3" t="n">
+        <v>38615</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.4101856525763733</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="3" t="n">
+        <v>38616</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.6152598634615537</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="3" t="n">
+        <v>38617</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1.417265412731561</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="3" t="n">
+        <v>38618</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1.639539886993924</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="3" t="n">
+        <v>38619</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1.530005192387626</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="3" t="n">
+        <v>38620</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1.469054039509127</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="3" t="n">
+        <v>38621</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1.336857950635419</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="3" t="n">
+        <v>38622</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1.091869214957693</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="3" t="n">
+        <v>38623</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1.901814924050204</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="3" t="n">
+        <v>38624</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1.645464739304512</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="3" t="n">
+        <v>38625</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1.671415020779193</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="3" t="n">
+        <v>38626</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1.878214907980462</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="3" t="n">
+        <v>38627</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1.7690804932405</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="3" t="n">
+        <v>38628</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1.023173729919601</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="3" t="n">
+        <v>38629</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1.149934616504873</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="3" t="n">
+        <v>38630</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.3504206447772082</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="3" t="n">
+        <v>38631</v>
+      </c>
+      <c r="B280" t="n">
+        <v>1.478919243882362</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="3" t="n">
+        <v>38632</v>
+      </c>
+      <c r="B281" t="n">
+        <v>1.845054069122083</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="3" t="n">
+        <v>38633</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1.815371594629941</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="3" t="n">
+        <v>38634</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1.884630666294088</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="3" t="n">
+        <v>38635</v>
+      </c>
+      <c r="B284" t="n">
+        <v>1.861628867687648</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="3" t="n">
+        <v>38636</v>
+      </c>
+      <c r="B285" t="n">
+        <v>1.696824403956668</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="3" t="n">
+        <v>38637</v>
+      </c>
+      <c r="B286" t="n">
+        <v>1.91262346265474</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="3" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B287" t="n">
+        <v>1.864801887047619</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="B288" t="n">
+        <v>1.32832142011524</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="3" t="n">
+        <v>38640</v>
+      </c>
+      <c r="B289" t="n">
+        <v>1.614235320847073</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="3" t="n">
+        <v>38641</v>
+      </c>
+      <c r="B290" t="n">
+        <v>1.866071407401979</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="3" t="n">
+        <v>38642</v>
+      </c>
+      <c r="B291" t="n">
+        <v>1.859842219787127</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="3" t="n">
+        <v>38643</v>
+      </c>
+      <c r="B292" t="n">
+        <v>1.871716255526859</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="3" t="n">
+        <v>38644</v>
+      </c>
+      <c r="B293" t="n">
+        <v>1.853565485876233</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="3" t="n">
+        <v>38645</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1.760214025907409</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="3" t="n">
+        <v>38646</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.4978991403828747</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="3" t="n">
+        <v>38647</v>
+      </c>
+      <c r="B296" t="n">
+        <v>1.012214718579747</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="3" t="n">
+        <v>38648</v>
+      </c>
+      <c r="B297" t="n">
+        <v>1.896970390508668</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="3" t="n">
+        <v>38649</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0.2185743804025443</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="3" t="n">
+        <v>38650</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0.2831268152694312</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="3" t="n">
+        <v>38651</v>
+      </c>
+      <c r="B300" t="n">
+        <v>1.402811155157518</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="3" t="n">
+        <v>38652</v>
+      </c>
+      <c r="B301" t="n">
+        <v>1.895301607336522</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="3" t="n">
+        <v>38653</v>
+      </c>
+      <c r="B302" t="n">
+        <v>1.766098440103198</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="3" t="n">
+        <v>38654</v>
+      </c>
+      <c r="B303" t="n">
+        <v>1.801978877308165</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="3" t="n">
+        <v>38655</v>
+      </c>
+      <c r="B304" t="n">
+        <v>1.800621488349885</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="3" t="n">
+        <v>38656</v>
+      </c>
+      <c r="B305" t="n">
+        <v>1.848961085923338</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="3" t="n">
+        <v>38657</v>
+      </c>
+      <c r="B306" t="n">
+        <v>1.905720733584309</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="3" t="n">
+        <v>38658</v>
+      </c>
+      <c r="B307" t="n">
+        <v>1.894984953676212</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="3" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B308" t="n">
+        <v>1.887147155482259</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="3" t="n">
+        <v>38660</v>
+      </c>
+      <c r="B309" t="n">
+        <v>1.887165036131399</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="3" t="n">
+        <v>38661</v>
+      </c>
+      <c r="B310" t="n">
+        <v>1.87203828469824</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="3" t="n">
+        <v>38662</v>
+      </c>
+      <c r="B311" t="n">
+        <v>1.860909160034213</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="3" t="n">
+        <v>38663</v>
+      </c>
+      <c r="B312" t="n">
+        <v>1.832965103456361</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="3" t="n">
+        <v>38664</v>
+      </c>
+      <c r="B313" t="n">
+        <v>1.63488941463621</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="3" t="n">
+        <v>38665</v>
+      </c>
+      <c r="B314" t="n">
+        <v>1.670488630880379</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="3" t="n">
+        <v>38666</v>
+      </c>
+      <c r="B315" t="n">
+        <v>1.883741672147596</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="3" t="n">
+        <v>38667</v>
+      </c>
+      <c r="B316" t="n">
+        <v>1.869422156581095</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="3" t="n">
+        <v>38668</v>
+      </c>
+      <c r="B317" t="n">
+        <v>1.837826972751186</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="3" t="n">
+        <v>38669</v>
+      </c>
+      <c r="B318" t="n">
+        <v>1.861066868716208</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="3" t="n">
+        <v>38670</v>
+      </c>
+      <c r="B319" t="n">
+        <v>1.732435687873191</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="3" t="n">
+        <v>38671</v>
+      </c>
+      <c r="B320" t="n">
+        <v>1.880223402861719</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="3" t="n">
+        <v>38672</v>
+      </c>
+      <c r="B321" t="n">
+        <v>1.680401183525084</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="3" t="n">
+        <v>38673</v>
+      </c>
+      <c r="B322" t="n">
+        <v>1.753040851453033</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="3" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B323" t="n">
+        <v>1.860618857374323</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="3" t="n">
+        <v>38675</v>
+      </c>
+      <c r="B324" t="n">
+        <v>1.84518071027252</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="3" t="n">
+        <v>38676</v>
+      </c>
+      <c r="B325" t="n">
+        <v>1.87432307378948</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="3" t="n">
+        <v>38677</v>
+      </c>
+      <c r="B326" t="n">
+        <v>1.849365958278726</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="3" t="n">
+        <v>38678</v>
+      </c>
+      <c r="B327" t="n">
+        <v>1.836440505648603</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="3" t="n">
+        <v>38679</v>
+      </c>
+      <c r="B328" t="n">
+        <v>1.815008146724107</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="3" t="n">
+        <v>38680</v>
+      </c>
+      <c r="B329" t="n">
+        <v>1.850933056052184</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="3" t="n">
+        <v>38681</v>
+      </c>
+      <c r="B330" t="n">
+        <v>1.856588454768563</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="3" t="n">
+        <v>38682</v>
+      </c>
+      <c r="B331" t="n">
+        <v>1.709759538943822</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="3" t="n">
+        <v>38683</v>
+      </c>
+      <c r="B332" t="n">
+        <v>1.81679334847606</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="3" t="n">
+        <v>38684</v>
+      </c>
+      <c r="B333" t="n">
+        <v>1.781034828860906</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="3" t="n">
+        <v>38685</v>
+      </c>
+      <c r="B334" t="n">
+        <v>1.799206849871109</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="3" t="n">
+        <v>38686</v>
+      </c>
+      <c r="B335" t="n">
+        <v>1.759292658874934</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="3" t="n">
+        <v>38687</v>
+      </c>
+      <c r="B336" t="n">
+        <v>1.907783913713614</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="3" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B337" t="n">
+        <v>1.902900012142646</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="3" t="n">
+        <v>38689</v>
+      </c>
+      <c r="B338" t="n">
+        <v>1.90105824716648</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="3" t="n">
+        <v>38690</v>
+      </c>
+      <c r="B339" t="n">
+        <v>1.881453958987376</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="3" t="n">
+        <v>38691</v>
+      </c>
+      <c r="B340" t="n">
+        <v>1.877346681808301</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="3" t="n">
+        <v>38692</v>
+      </c>
+      <c r="B341" t="n">
+        <v>1.910243971852987</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="3" t="n">
+        <v>38693</v>
+      </c>
+      <c r="B342" t="n">
+        <v>1.605323827180795</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="3" t="n">
+        <v>38694</v>
+      </c>
+      <c r="B343" t="n">
+        <v>1.330543480445383</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="3" t="n">
+        <v>38695</v>
+      </c>
+      <c r="B344" t="n">
+        <v>1.539203704596155</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="3" t="n">
+        <v>38696</v>
+      </c>
+      <c r="B345" t="n">
+        <v>1.700815579593203</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="3" t="n">
+        <v>38697</v>
+      </c>
+      <c r="B346" t="n">
+        <v>1.212394102021222</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="3" t="n">
+        <v>38698</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0.7128177923187593</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="3" t="n">
+        <v>38699</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0.920137730537164</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="3" t="n">
+        <v>38700</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0.6128740820497838</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="3" t="n">
+        <v>38701</v>
+      </c>
+      <c r="B350" t="n">
+        <v>1.242976619887358</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="3" t="n">
+        <v>38702</v>
+      </c>
+      <c r="B351" t="n">
+        <v>1.891817308368413</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="3" t="n">
+        <v>38703</v>
+      </c>
+      <c r="B352" t="n">
+        <v>1.616215222098356</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="3" t="n">
+        <v>38704</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0.9948517199939392</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="3" t="n">
+        <v>38705</v>
+      </c>
+      <c r="B354" t="n">
+        <v>1.572740139986231</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="3" t="n">
+        <v>38706</v>
+      </c>
+      <c r="B355" t="n">
+        <v>1.891132881750122</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="3" t="n">
+        <v>38707</v>
+      </c>
+      <c r="B356" t="n">
+        <v>1.826048393398204</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="3" t="n">
+        <v>38708</v>
+      </c>
+      <c r="B357" t="n">
+        <v>1.880977921909002</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="3" t="n">
+        <v>38709</v>
+      </c>
+      <c r="B358" t="n">
+        <v>1.888452030030211</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="3" t="n">
+        <v>38710</v>
+      </c>
+      <c r="B359" t="n">
+        <v>1.892552543188962</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="3" t="n">
+        <v>38711</v>
+      </c>
+      <c r="B360" t="n">
+        <v>1.806032828626692</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="3" t="n">
+        <v>38712</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0.6303472480367172</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="3" t="n">
+        <v>38713</v>
+      </c>
+      <c r="B362" t="n">
+        <v>1.148310678894552</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="3" t="n">
+        <v>38714</v>
+      </c>
+      <c r="B363" t="n">
+        <v>1.14426922684289</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="3" t="n">
+        <v>38715</v>
+      </c>
+      <c r="B364" t="n">
+        <v>1.137381908313003</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="3" t="n">
+        <v>38716</v>
+      </c>
+      <c r="B365" t="n">
+        <v>1.378191454722589</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="3" t="n">
+        <v>38717</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0.5761759530873063</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
